--- a/DDAf_2025_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA9DE388-E729-4907-AF4D-7E2D25873116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86D01981-2922-4FE6-908B-2EA177601326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{D8C697D9-1299-478B-9588-C89953016561}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{566E0CDD-CC24-497A-81AE-3A4A0C10F277}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Table 27: Trade by manufacturing intensity</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>Update will be coming soon</t>
-  </si>
-  <si>
     <t>SWZ</t>
   </si>
   <si>
@@ -549,13 +546,13 @@
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -565,7 +562,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,13 +631,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="35"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -940,7 +930,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -985,8 +975,11 @@
     <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1000,12 +993,6 @@
     <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1018,19 +1005,19 @@
     <xf numFmtId="37" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,25 +1071,25 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1117,13 +1104,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1150,28 +1137,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1455,11 +1442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B12B9A-CF30-461F-9AE3-F9487DDE1AB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D97C4-D5C6-4BBF-A85D-4A2D9218A00D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1467,11 +1454,11 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="14.42578125" style="81" customWidth="1"/>
+    <col min="3" max="10" width="14.42578125" style="80" customWidth="1"/>
     <col min="11" max="26" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1484,7 +1471,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1516,1679 +1503,3190 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="11">
+        <v>36721.643216999997</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1156.555222</v>
+      </c>
+      <c r="E3" s="12">
+        <v>4885.5933679999998</v>
+      </c>
+      <c r="F3" s="13">
+        <v>42763.791807000001</v>
+      </c>
+      <c r="G3" s="12">
+        <v>892.99416900000006</v>
+      </c>
+      <c r="H3" s="12">
+        <v>10325.816484999999</v>
+      </c>
+      <c r="I3" s="12">
+        <v>5879.3852479999996</v>
+      </c>
+      <c r="J3" s="13">
+        <v>17098.195901999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="15">
+        <v>4687.8771820000002</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1809.017977</v>
+      </c>
+      <c r="E4" s="16">
+        <v>97.080174</v>
+      </c>
+      <c r="F4" s="17">
+        <v>6593.9753330000003</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1039.9115730000001</v>
+      </c>
+      <c r="H4" s="16">
+        <v>3804.712403</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1773.651265</v>
+      </c>
+      <c r="J4" s="17">
+        <v>6618.2752410000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="15">
+        <v>166.7526</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1827.335806</v>
+      </c>
+      <c r="E5" s="19">
+        <v>294.784965</v>
+      </c>
+      <c r="F5" s="20">
+        <v>2288.8733710000001</v>
+      </c>
+      <c r="G5" s="19">
+        <v>187.463346</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1265.553905</v>
+      </c>
+      <c r="I5" s="19">
+        <v>597.21150999999998</v>
+      </c>
+      <c r="J5" s="20">
+        <v>2050.2287609999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="15">
+        <v>601.20140400000003</v>
+      </c>
+      <c r="D6" s="19">
+        <v>141.29180500000001</v>
+      </c>
+      <c r="E6" s="19">
+        <v>393.87946799999997</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1136.3726770000001</v>
+      </c>
+      <c r="G6" s="19">
+        <v>136.77686</v>
+      </c>
+      <c r="H6" s="19">
+        <v>1083.8196170000001</v>
+      </c>
+      <c r="I6" s="19">
+        <v>509.02177699999999</v>
+      </c>
+      <c r="J6" s="20">
+        <v>1729.618254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="15">
+        <v>719.95276000000001</v>
+      </c>
+      <c r="D7" s="19">
+        <v>196.94004799999999</v>
+      </c>
+      <c r="E7" s="19">
+        <v>29.78218</v>
+      </c>
+      <c r="F7" s="20">
+        <v>946.67498799999998</v>
+      </c>
+      <c r="G7" s="19">
+        <v>255.98748699999999</v>
+      </c>
+      <c r="H7" s="19">
+        <v>2094.7011160000002</v>
+      </c>
+      <c r="I7" s="19">
+        <v>845.92372999999998</v>
+      </c>
+      <c r="J7" s="20">
+        <v>3196.612333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="15">
+        <v>5591.8681029999998</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3636.2254389999998</v>
+      </c>
+      <c r="E8" s="19">
+        <v>3057.8895389999998</v>
+      </c>
+      <c r="F8" s="20">
+        <v>12285.983081</v>
+      </c>
+      <c r="G8" s="19">
+        <v>3550.4279489999999</v>
+      </c>
+      <c r="H8" s="19">
+        <v>10965.421981</v>
+      </c>
+      <c r="I8" s="19">
+        <v>3521.7584499999998</v>
+      </c>
+      <c r="J8" s="20">
+        <v>18037.608380000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="21">
+        <v>1426.0254090000001</v>
+      </c>
+      <c r="D9" s="19">
+        <v>4586.1346949999997</v>
+      </c>
+      <c r="E9" s="19">
+        <v>276.706908</v>
+      </c>
+      <c r="F9" s="20">
+        <v>6288.8670119999997</v>
+      </c>
+      <c r="G9" s="19">
+        <v>719.03973499999995</v>
+      </c>
+      <c r="H9" s="19">
+        <v>4315.9495040000002</v>
+      </c>
+      <c r="I9" s="19">
+        <v>2402.7866079999999</v>
+      </c>
+      <c r="J9" s="20">
+        <v>7437.7758469999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="21">
+        <v>43226.583054000002</v>
+      </c>
+      <c r="D10" s="19">
+        <v>83097.731107</v>
+      </c>
+      <c r="E10" s="19">
+        <v>27615.820249</v>
+      </c>
+      <c r="F10" s="20">
+        <v>153940.13441</v>
+      </c>
+      <c r="G10" s="19">
+        <v>7961.3744720000004</v>
+      </c>
+      <c r="H10" s="19">
+        <v>60891.669102</v>
+      </c>
+      <c r="I10" s="19">
+        <v>34555.825303999998</v>
+      </c>
+      <c r="J10" s="20">
+        <v>103408.86887799999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="15">
+        <v>1559.515858</v>
+      </c>
+      <c r="D11" s="16">
+        <v>13670.946699</v>
+      </c>
+      <c r="E11" s="16">
+        <v>735.28018899999995</v>
+      </c>
+      <c r="F11" s="17">
+        <v>15965.742746</v>
+      </c>
+      <c r="G11" s="16">
+        <v>771.46851200000003</v>
+      </c>
+      <c r="H11" s="16">
+        <v>6538.564308</v>
+      </c>
+      <c r="I11" s="16">
+        <v>3434.8580010000001</v>
+      </c>
+      <c r="J11" s="17">
+        <v>10744.890821000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="C12" s="23">
+        <v>3088.6334120000001</v>
+      </c>
+      <c r="D12" s="24">
+        <v>5506.8723280000004</v>
+      </c>
+      <c r="E12" s="24">
+        <v>468.28068400000001</v>
+      </c>
+      <c r="F12" s="25">
+        <v>9063.7864239999999</v>
+      </c>
+      <c r="G12" s="24">
+        <v>457.50950399999999</v>
+      </c>
+      <c r="H12" s="24">
+        <v>5745.3495720000001</v>
+      </c>
+      <c r="I12" s="24">
+        <v>3143.4730810000001</v>
+      </c>
+      <c r="J12" s="25">
+        <v>9346.3321570000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="C13" s="28">
+        <v>97790.052999000007</v>
+      </c>
+      <c r="D13" s="29">
+        <v>115629.05112600001</v>
+      </c>
+      <c r="E13" s="29">
+        <v>37855.097723999999</v>
+      </c>
+      <c r="F13" s="30">
+        <v>251274.201849</v>
+      </c>
+      <c r="G13" s="29">
+        <v>15972.953606999999</v>
+      </c>
+      <c r="H13" s="29">
+        <v>107031.55799299999</v>
+      </c>
+      <c r="I13" s="29">
+        <v>56663.894974000003</v>
+      </c>
+      <c r="J13" s="30">
+        <v>179668.40657399999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="21">
+        <v>60.822066</v>
+      </c>
+      <c r="D14" s="19">
+        <v>136.05610999999999</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1.7292879999999999</v>
+      </c>
+      <c r="F14" s="20">
+        <v>198.60746399999999</v>
+      </c>
+      <c r="G14" s="19">
+        <v>34.183436</v>
+      </c>
+      <c r="H14" s="19">
+        <v>437.09158400000001</v>
+      </c>
+      <c r="I14" s="19">
+        <v>203.84277</v>
+      </c>
+      <c r="J14" s="20">
+        <v>675.11779000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="21">
+        <v>3593.3066480000002</v>
+      </c>
+      <c r="D15" s="19">
+        <v>2002.2244679999999</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1162.2854070000001</v>
+      </c>
+      <c r="F15" s="20">
+        <v>6757.8165230000004</v>
+      </c>
+      <c r="G15" s="19">
+        <v>439.19667600000002</v>
+      </c>
+      <c r="H15" s="19">
+        <v>4858.6534060000004</v>
+      </c>
+      <c r="I15" s="19">
+        <v>3381.3486779999998</v>
+      </c>
+      <c r="J15" s="20">
+        <v>8679.1987599999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
+      <c r="C16" s="21">
+        <v>71.600498999999999</v>
+      </c>
+      <c r="D16" s="19">
+        <v>145.14043799999999</v>
+      </c>
+      <c r="E16" s="19">
+        <v>8.3001369999999994</v>
+      </c>
+      <c r="F16" s="20">
+        <v>225.04107400000001</v>
+      </c>
+      <c r="G16" s="19">
+        <v>41.017477</v>
+      </c>
+      <c r="H16" s="19">
+        <v>439.85193400000003</v>
+      </c>
+      <c r="I16" s="19">
+        <v>354.27678400000002</v>
+      </c>
+      <c r="J16" s="20">
+        <v>835.14619500000003</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
+      <c r="C17" s="32">
+        <v>3233.5574860000002</v>
+      </c>
+      <c r="D17" s="33">
+        <v>1120.710233</v>
+      </c>
+      <c r="E17" s="33">
+        <v>1.8270759999999999</v>
+      </c>
+      <c r="F17" s="34">
+        <v>4356.094795</v>
+      </c>
+      <c r="G17" s="33">
+        <v>22.215257000000001</v>
+      </c>
+      <c r="H17" s="33">
+        <v>694.68561099999999</v>
+      </c>
+      <c r="I17" s="33">
+        <v>632.72861499999999</v>
+      </c>
+      <c r="J17" s="34">
+        <v>1349.6294829999999</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
+      <c r="C18" s="32">
+        <v>7114.3832929999999</v>
+      </c>
+      <c r="D18" s="33">
+        <v>4706.0691710000001</v>
+      </c>
+      <c r="E18" s="33">
+        <v>27.578412</v>
+      </c>
+      <c r="F18" s="34">
+        <v>11848.030876000001</v>
+      </c>
+      <c r="G18" s="33">
+        <v>231.29336000000001</v>
+      </c>
+      <c r="H18" s="33">
+        <v>2656.6521069999999</v>
+      </c>
+      <c r="I18" s="33">
+        <v>3388.3856999999998</v>
+      </c>
+      <c r="J18" s="34">
+        <v>6276.3311670000003</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
+      <c r="C19" s="15">
+        <v>4246.9797040000003</v>
+      </c>
+      <c r="D19" s="16">
+        <v>16422.313362000001</v>
+      </c>
+      <c r="E19" s="16">
+        <v>19.009412999999999</v>
+      </c>
+      <c r="F19" s="17">
+        <v>20688.302479000002</v>
+      </c>
+      <c r="G19" s="16">
+        <v>747.46831499999996</v>
+      </c>
+      <c r="H19" s="16">
+        <v>7327.5333309999996</v>
+      </c>
+      <c r="I19" s="16">
+        <v>4787.2257529999997</v>
+      </c>
+      <c r="J19" s="17">
+        <v>12862.227398999999</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
+      <c r="C20" s="32">
+        <v>2579.6505029999998</v>
+      </c>
+      <c r="D20" s="33">
+        <v>384.988452</v>
+      </c>
+      <c r="E20" s="33">
+        <v>2161.8944289999999</v>
+      </c>
+      <c r="F20" s="34">
+        <v>5126.5333840000003</v>
+      </c>
+      <c r="G20" s="33">
+        <v>31.935189999999999</v>
+      </c>
+      <c r="H20" s="33">
+        <v>633.29837099999997</v>
+      </c>
+      <c r="I20" s="33">
+        <v>336.76308599999999</v>
+      </c>
+      <c r="J20" s="34">
+        <v>1001.9966470000001</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
+      <c r="C21" s="32">
+        <v>7407.7748739999997</v>
+      </c>
+      <c r="D21" s="33">
+        <v>1532.8204310000001</v>
+      </c>
+      <c r="E21" s="33">
+        <v>1761.340238</v>
+      </c>
+      <c r="F21" s="34">
+        <v>10701.935543</v>
+      </c>
+      <c r="G21" s="33">
+        <v>106.912514</v>
+      </c>
+      <c r="H21" s="33">
+        <v>2043.82699</v>
+      </c>
+      <c r="I21" s="33">
+        <v>2323.9492009999999</v>
+      </c>
+      <c r="J21" s="34">
+        <v>4474.6887049999996</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="C22" s="36">
+        <v>40.443505999999999</v>
+      </c>
+      <c r="D22" s="37">
+        <v>15.373124000000001</v>
+      </c>
+      <c r="E22" s="37">
+        <v>1.3414090000000001</v>
+      </c>
+      <c r="F22" s="38">
+        <v>57.158039000000002</v>
+      </c>
+      <c r="G22" s="37">
+        <v>7.5736109999999996</v>
+      </c>
+      <c r="H22" s="37">
+        <v>103.991891</v>
+      </c>
+      <c r="I22" s="37">
+        <v>73.186954</v>
+      </c>
+      <c r="J22" s="38">
+        <v>184.752456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="C23" s="28">
+        <v>28348.518579</v>
+      </c>
+      <c r="D23" s="29">
+        <v>26465.695789000001</v>
+      </c>
+      <c r="E23" s="29">
+        <v>5145.3058090000004</v>
+      </c>
+      <c r="F23" s="30">
+        <v>59959.520176999999</v>
+      </c>
+      <c r="G23" s="29">
+        <v>1661.795836</v>
+      </c>
+      <c r="H23" s="29">
+        <v>19195.585224999999</v>
+      </c>
+      <c r="I23" s="29">
+        <v>15481.707541</v>
+      </c>
+      <c r="J23" s="30">
+        <v>36339.088602000003</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
+      <c r="C24" s="40">
+        <v>89.359667999999999</v>
+      </c>
+      <c r="D24" s="41">
+        <v>6.2260980000000004</v>
+      </c>
+      <c r="E24" s="41">
+        <v>5.5290419999999996</v>
+      </c>
+      <c r="F24" s="42">
+        <v>101.114808</v>
+      </c>
+      <c r="G24" s="41">
+        <v>13.034869</v>
+      </c>
+      <c r="H24" s="41">
+        <v>328.87505299999998</v>
+      </c>
+      <c r="I24" s="41">
+        <v>113.717862</v>
+      </c>
+      <c r="J24" s="42">
+        <v>455.62778400000002</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
+      <c r="C25" s="21">
+        <v>210.89410000000001</v>
+      </c>
+      <c r="D25" s="19">
+        <v>3080.6138000000001</v>
+      </c>
+      <c r="E25" s="19">
+        <v>920.28573400000005</v>
+      </c>
+      <c r="F25" s="20">
+        <v>4211.7936339999997</v>
+      </c>
+      <c r="G25" s="19">
+        <v>416.41927900000002</v>
+      </c>
+      <c r="H25" s="19">
+        <v>7051.9050310000002</v>
+      </c>
+      <c r="I25" s="19">
+        <v>2846.4637109999999</v>
+      </c>
+      <c r="J25" s="20">
+        <v>10314.788021</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
+      <c r="C26" s="21">
+        <v>378.706795</v>
+      </c>
+      <c r="D26" s="19">
+        <v>140.70448400000001</v>
+      </c>
+      <c r="E26" s="19">
+        <v>9.8229009999999999</v>
+      </c>
+      <c r="F26" s="20">
+        <v>529.23418000000004</v>
+      </c>
+      <c r="G26" s="19">
+        <v>38.321686999999997</v>
+      </c>
+      <c r="H26" s="19">
+        <v>235.155585</v>
+      </c>
+      <c r="I26" s="19">
+        <v>166.603556</v>
+      </c>
+      <c r="J26" s="20">
+        <v>440.080828</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
+      <c r="C27" s="21">
+        <v>2447.7810939999999</v>
+      </c>
+      <c r="D27" s="19">
+        <v>745.29561899999999</v>
+      </c>
+      <c r="E27" s="19">
+        <v>778.67751299999998</v>
+      </c>
+      <c r="F27" s="20">
+        <v>3971.754226</v>
+      </c>
+      <c r="G27" s="19">
+        <v>837.97761300000002</v>
+      </c>
+      <c r="H27" s="19">
+        <v>13327.139456999999</v>
+      </c>
+      <c r="I27" s="19">
+        <v>5525.9512409999998</v>
+      </c>
+      <c r="J27" s="20">
+        <v>19691.068310999999</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
+      <c r="C28" s="21">
+        <v>3172.9064290000001</v>
+      </c>
+      <c r="D28" s="19">
+        <v>3106.84942</v>
+      </c>
+      <c r="E28" s="19">
+        <v>2344.3726430000002</v>
+      </c>
+      <c r="F28" s="20">
+        <v>8624.1284919999998</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1835.84276</v>
+      </c>
+      <c r="H28" s="19">
+        <v>13509.711918000001</v>
+      </c>
+      <c r="I28" s="19">
+        <v>5624.8466900000003</v>
+      </c>
+      <c r="J28" s="20">
+        <v>20970.401367999999</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19"/>
+      <c r="C29" s="21">
+        <v>1528.094558</v>
+      </c>
+      <c r="D29" s="19">
+        <v>1666.372091</v>
+      </c>
+      <c r="E29" s="19">
+        <v>1106.3746470000001</v>
+      </c>
+      <c r="F29" s="20">
+        <v>4300.8412959999996</v>
+      </c>
+      <c r="G29" s="19">
+        <v>360.81374299999999</v>
+      </c>
+      <c r="H29" s="19">
+        <v>3670.4047970000001</v>
+      </c>
+      <c r="I29" s="19">
+        <v>1125.054052</v>
+      </c>
+      <c r="J29" s="20">
+        <v>5156.2725920000003</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
+      <c r="C30" s="21">
+        <v>249.101868</v>
+      </c>
+      <c r="D30" s="19">
+        <v>1696.939676</v>
+      </c>
+      <c r="E30" s="19">
+        <v>798.11454800000001</v>
+      </c>
+      <c r="F30" s="20">
+        <v>2744.1560920000002</v>
+      </c>
+      <c r="G30" s="19">
+        <v>696.67671299999995</v>
+      </c>
+      <c r="H30" s="19">
+        <v>3748.2322880000002</v>
+      </c>
+      <c r="I30" s="19">
+        <v>2187.4787449999999</v>
+      </c>
+      <c r="J30" s="20">
+        <v>6632.3877460000003</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19"/>
+      <c r="C31" s="21">
+        <v>358.38943499999999</v>
+      </c>
+      <c r="D31" s="19">
+        <v>955.05091900000002</v>
+      </c>
+      <c r="E31" s="19">
+        <v>34.585510999999997</v>
+      </c>
+      <c r="F31" s="20">
+        <v>1348.0258650000001</v>
+      </c>
+      <c r="G31" s="19">
+        <v>235.66491300000001</v>
+      </c>
+      <c r="H31" s="19">
+        <v>1140.123695</v>
+      </c>
+      <c r="I31" s="19">
+        <v>825.41470700000002</v>
+      </c>
+      <c r="J31" s="20">
+        <v>2201.2033150000002</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19"/>
+      <c r="C32" s="21">
+        <v>65.537216000000001</v>
+      </c>
+      <c r="D32" s="19">
+        <v>638.43101000000001</v>
+      </c>
+      <c r="E32" s="19">
+        <v>39.105238</v>
+      </c>
+      <c r="F32" s="20">
+        <v>743.07346399999994</v>
+      </c>
+      <c r="G32" s="19">
+        <v>68.132917000000006</v>
+      </c>
+      <c r="H32" s="19">
+        <v>1074.824811</v>
+      </c>
+      <c r="I32" s="19">
+        <v>502.40883600000001</v>
+      </c>
+      <c r="J32" s="20">
+        <v>1645.3665639999999</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19"/>
+      <c r="C33" s="21">
+        <v>601.73425699999996</v>
+      </c>
+      <c r="D33" s="19">
+        <v>422.14038900000003</v>
+      </c>
+      <c r="E33" s="19">
+        <v>5.5547950000000004</v>
+      </c>
+      <c r="F33" s="20">
+        <v>1029.429441</v>
+      </c>
+      <c r="G33" s="19">
+        <v>302.421493</v>
+      </c>
+      <c r="H33" s="19">
+        <v>3099.0229859999999</v>
+      </c>
+      <c r="I33" s="19">
+        <v>1816.7353660000001</v>
+      </c>
+      <c r="J33" s="20">
+        <v>5218.1798449999997</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
+      <c r="C34" s="32">
+        <v>631.11951799999997</v>
+      </c>
+      <c r="D34" s="33">
+        <v>68.491890999999995</v>
+      </c>
+      <c r="E34" s="33">
+        <v>1.6858010000000001</v>
+      </c>
+      <c r="F34" s="34">
+        <v>701.29720999999995</v>
+      </c>
+      <c r="G34" s="33">
+        <v>123.882605</v>
+      </c>
+      <c r="H34" s="33">
+        <v>873.88674200000003</v>
+      </c>
+      <c r="I34" s="33">
+        <v>619.65491399999996</v>
+      </c>
+      <c r="J34" s="34">
+        <v>1617.4242609999999</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="19"/>
+      <c r="C35" s="21">
+        <v>3765.6408729999998</v>
+      </c>
+      <c r="D35" s="19">
+        <v>1319.501546</v>
+      </c>
+      <c r="E35" s="19">
+        <v>8.2361690000000003</v>
+      </c>
+      <c r="F35" s="20">
+        <v>5093.3785879999996</v>
+      </c>
+      <c r="G35" s="19">
+        <v>508.57878099999999</v>
+      </c>
+      <c r="H35" s="19">
+        <v>3756.7357940000002</v>
+      </c>
+      <c r="I35" s="19">
+        <v>1995.7514060000001</v>
+      </c>
+      <c r="J35" s="20">
+        <v>6261.0659809999997</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="19"/>
+      <c r="C36" s="21">
+        <v>3263.3243320000001</v>
+      </c>
+      <c r="D36" s="19">
+        <v>7589.9650199999996</v>
+      </c>
+      <c r="E36" s="19">
+        <v>499.240095</v>
+      </c>
+      <c r="F36" s="20">
+        <v>11352.529447000001</v>
+      </c>
+      <c r="G36" s="19">
+        <v>796.94929300000001</v>
+      </c>
+      <c r="H36" s="19">
+        <v>10754.721707999999</v>
+      </c>
+      <c r="I36" s="19">
+        <v>6143.6583350000001</v>
+      </c>
+      <c r="J36" s="20">
+        <v>17695.329335999999</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="C37" s="23">
+        <v>1971.252154</v>
+      </c>
+      <c r="D37" s="24">
+        <v>4755.238918</v>
+      </c>
+      <c r="E37" s="24">
+        <v>453.89164599999998</v>
+      </c>
+      <c r="F37" s="25">
+        <v>7180.3827179999998</v>
+      </c>
+      <c r="G37" s="24">
+        <v>705.41414999999995</v>
+      </c>
+      <c r="H37" s="24">
+        <v>8182.5355319999999</v>
+      </c>
+      <c r="I37" s="24">
+        <v>3181.6240509999998</v>
+      </c>
+      <c r="J37" s="25">
+        <v>12069.573732999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="26"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
+      <c r="C38" s="28">
+        <v>18733.842296999999</v>
+      </c>
+      <c r="D38" s="29">
+        <v>26191.820881</v>
+      </c>
+      <c r="E38" s="29">
+        <v>7005.476283</v>
+      </c>
+      <c r="F38" s="30">
+        <v>51931.139460999999</v>
+      </c>
+      <c r="G38" s="29">
+        <v>6940.1308159999999</v>
+      </c>
+      <c r="H38" s="29">
+        <v>70753.275397000005</v>
+      </c>
+      <c r="I38" s="29">
+        <v>32675.363472000001</v>
+      </c>
+      <c r="J38" s="30">
+        <v>110368.76968500001</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="47"/>
+      <c r="C39" s="44">
+        <v>31330.578406000001</v>
+      </c>
+      <c r="D39" s="45">
+        <v>10194.197061999999</v>
+      </c>
+      <c r="E39" s="45">
+        <v>10833.583505000001</v>
+      </c>
+      <c r="F39" s="46">
+        <v>52358.358973000002</v>
+      </c>
+      <c r="G39" s="45">
+        <v>6162.8431689999998</v>
+      </c>
+      <c r="H39" s="45">
+        <v>21196.138393000001</v>
+      </c>
+      <c r="I39" s="45">
+        <v>12558.512839999999</v>
+      </c>
+      <c r="J39" s="46">
+        <v>39917.494401999997</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="19"/>
+      <c r="C40" s="21">
+        <v>9565.6617779999997</v>
+      </c>
+      <c r="D40" s="19">
+        <v>30158.069796</v>
+      </c>
+      <c r="E40" s="19">
+        <v>11512.222728000001</v>
+      </c>
+      <c r="F40" s="20">
+        <v>51235.954301999998</v>
+      </c>
+      <c r="G40" s="19">
+        <v>15992.03095</v>
+      </c>
+      <c r="H40" s="19">
+        <v>49983.405835999998</v>
+      </c>
+      <c r="I40" s="19">
+        <v>23313.610693999999</v>
+      </c>
+      <c r="J40" s="20">
+        <v>89289.047479999994</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
+      <c r="C41" s="32">
+        <v>32994.922010000002</v>
+      </c>
+      <c r="D41" s="33">
+        <v>2239.984778</v>
+      </c>
+      <c r="E41" s="33">
+        <v>148.60368099999999</v>
+      </c>
+      <c r="F41" s="34">
+        <v>35383.510469000001</v>
+      </c>
+      <c r="G41" s="33">
+        <v>1333.7584300000001</v>
+      </c>
+      <c r="H41" s="33">
+        <v>13145.407608</v>
+      </c>
+      <c r="I41" s="33">
+        <v>7941.8813120000004</v>
+      </c>
+      <c r="J41" s="34">
+        <v>22421.047350000001</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
+      <c r="C42" s="32">
+        <v>2132.0224450000001</v>
+      </c>
+      <c r="D42" s="33">
+        <v>2774.9932920000001</v>
+      </c>
+      <c r="E42" s="33">
+        <v>46.475180999999999</v>
+      </c>
+      <c r="F42" s="34">
+        <v>4953.4909180000004</v>
+      </c>
+      <c r="G42" s="33">
+        <v>524.57467099999997</v>
+      </c>
+      <c r="H42" s="33">
+        <v>3390.0168450000001</v>
+      </c>
+      <c r="I42" s="33">
+        <v>1447.275177</v>
+      </c>
+      <c r="J42" s="34">
+        <v>5361.8666929999999</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="19"/>
+      <c r="C43" s="21">
+        <v>7789.4577090000002</v>
+      </c>
+      <c r="D43" s="19">
+        <v>26166.302460999999</v>
+      </c>
+      <c r="E43" s="19">
+        <v>15273.116886</v>
+      </c>
+      <c r="F43" s="20">
+        <v>49228.877055999998</v>
+      </c>
+      <c r="G43" s="19">
+        <v>9767.3409850000007</v>
+      </c>
+      <c r="H43" s="19">
+        <v>44549.941197</v>
+      </c>
+      <c r="I43" s="19">
+        <v>17757.150362</v>
+      </c>
+      <c r="J43" s="20">
+        <v>72074.432543999996</v>
+      </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="C44" s="36">
+        <v>2014.5495960000001</v>
+      </c>
+      <c r="D44" s="37">
+        <v>12372.656440999999</v>
+      </c>
+      <c r="E44" s="37">
+        <v>8759.2827789999992</v>
+      </c>
+      <c r="F44" s="38">
+        <v>23146.488816000001</v>
+      </c>
+      <c r="G44" s="37">
+        <v>4057.1202250000001</v>
+      </c>
+      <c r="H44" s="37">
+        <v>15322.394367999999</v>
+      </c>
+      <c r="I44" s="37">
+        <v>6230.3816150000002</v>
+      </c>
+      <c r="J44" s="38">
+        <v>25609.896207999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="26"/>
+      <c r="B45" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="31"/>
+      <c r="C45" s="28">
+        <v>85827.191944000006</v>
+      </c>
+      <c r="D45" s="29">
+        <v>83906.203829999999</v>
+      </c>
+      <c r="E45" s="29">
+        <v>46573.284760000002</v>
+      </c>
+      <c r="F45" s="30">
+        <v>216306.68053400001</v>
+      </c>
+      <c r="G45" s="29">
+        <v>37837.668429999998</v>
+      </c>
+      <c r="H45" s="29">
+        <v>147587.30424699999</v>
+      </c>
+      <c r="I45" s="29">
+        <v>69248.812000000005</v>
+      </c>
+      <c r="J45" s="30">
+        <v>254673.78467699999</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="43"/>
+      <c r="C46" s="40">
+        <v>838.24442999999997</v>
+      </c>
+      <c r="D46" s="41">
+        <v>1032.3398179999999</v>
+      </c>
+      <c r="E46" s="41">
+        <v>57.661701000000001</v>
+      </c>
+      <c r="F46" s="42">
+        <v>1928.2459490000001</v>
+      </c>
+      <c r="G46" s="41">
+        <v>191.646276</v>
+      </c>
+      <c r="H46" s="41">
+        <v>3737.8435669999999</v>
+      </c>
+      <c r="I46" s="41">
+        <v>1577.213974</v>
+      </c>
+      <c r="J46" s="42">
+        <v>5506.7038169999996</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="19"/>
+      <c r="C47" s="21">
+        <v>817.64798099999996</v>
+      </c>
+      <c r="D47" s="19">
+        <v>7455.1614229999996</v>
+      </c>
+      <c r="E47" s="19">
+        <v>107.72797300000001</v>
+      </c>
+      <c r="F47" s="20">
+        <v>8380.5373770000006</v>
+      </c>
+      <c r="G47" s="19">
+        <v>186.23970600000001</v>
+      </c>
+      <c r="H47" s="19">
+        <v>4324.8196749999997</v>
+      </c>
+      <c r="I47" s="19">
+        <v>1609.7846460000001</v>
+      </c>
+      <c r="J47" s="20">
+        <v>6120.8440270000001</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="35"/>
+      <c r="C48" s="32">
+        <v>15.784649</v>
+      </c>
+      <c r="D48" s="33">
+        <v>113.166546</v>
+      </c>
+      <c r="E48" s="33">
+        <v>34.654384</v>
+      </c>
+      <c r="F48" s="34">
+        <v>163.60557900000001</v>
+      </c>
+      <c r="G48" s="33">
+        <v>89.820143000000002</v>
+      </c>
+      <c r="H48" s="33">
+        <v>1385.5013289999999</v>
+      </c>
+      <c r="I48" s="33">
+        <v>346.50339700000001</v>
+      </c>
+      <c r="J48" s="34">
+        <v>1821.824869</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="19"/>
+      <c r="C49" s="21">
+        <v>9797.9900030000008</v>
+      </c>
+      <c r="D49" s="19">
+        <v>10564.64796</v>
+      </c>
+      <c r="E49" s="19">
+        <v>1940.4318659999999</v>
+      </c>
+      <c r="F49" s="20">
+        <v>22303.069829</v>
+      </c>
+      <c r="G49" s="19">
+        <v>3328.873771</v>
+      </c>
+      <c r="H49" s="19">
+        <v>9626.758726</v>
+      </c>
+      <c r="I49" s="19">
+        <v>6458.5343389999998</v>
+      </c>
+      <c r="J49" s="20">
+        <v>19414.166836</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="19"/>
+      <c r="C50" s="21">
+        <v>132.68483800000001</v>
+      </c>
+      <c r="D50" s="19">
+        <v>1112.8057960000001</v>
+      </c>
+      <c r="E50" s="19">
+        <v>1912.3173300000001</v>
+      </c>
+      <c r="F50" s="20">
+        <v>3157.8079640000001</v>
+      </c>
+      <c r="G50" s="19">
+        <v>552.43272400000001</v>
+      </c>
+      <c r="H50" s="19">
+        <v>1627.9728030000001</v>
+      </c>
+      <c r="I50" s="19">
+        <v>408.99577900000003</v>
+      </c>
+      <c r="J50" s="20">
+        <v>2589.4013060000002</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="22"/>
+      <c r="C51" s="15">
+        <v>8059.6024660000003</v>
+      </c>
+      <c r="D51" s="16">
+        <v>18501.280124000001</v>
+      </c>
+      <c r="E51" s="16">
+        <v>595.78797799999995</v>
+      </c>
+      <c r="F51" s="17">
+        <v>27156.670568000001</v>
+      </c>
+      <c r="G51" s="16">
+        <v>944.18592599999999</v>
+      </c>
+      <c r="H51" s="16">
+        <v>13866.995901</v>
+      </c>
+      <c r="I51" s="16">
+        <v>5765.5320899999997</v>
+      </c>
+      <c r="J51" s="17">
+        <v>20576.713917000001</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="19"/>
+      <c r="C52" s="21">
+        <v>8143.6831410000004</v>
+      </c>
+      <c r="D52" s="19">
+        <v>9751.0204250000006</v>
+      </c>
+      <c r="E52" s="19">
+        <v>57.357370000000003</v>
+      </c>
+      <c r="F52" s="20">
+        <v>17952.060936000002</v>
+      </c>
+      <c r="G52" s="19">
+        <v>279.06377600000002</v>
+      </c>
+      <c r="H52" s="19">
+        <v>4018.914143</v>
+      </c>
+      <c r="I52" s="19">
+        <v>2441.2679229999999</v>
+      </c>
+      <c r="J52" s="20">
+        <v>6739.2458420000003</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="19"/>
+      <c r="C53" s="21">
+        <v>78.925897000000006</v>
+      </c>
+      <c r="D53" s="19">
+        <v>29.670577999999999</v>
+      </c>
+      <c r="E53" s="19">
+        <v>0.44875599999999999</v>
+      </c>
+      <c r="F53" s="20">
+        <v>109.045231</v>
+      </c>
+      <c r="G53" s="19">
+        <v>14.153074</v>
+      </c>
+      <c r="H53" s="19">
+        <v>473.0831</v>
+      </c>
+      <c r="I53" s="19">
+        <v>80.881934999999999</v>
+      </c>
+      <c r="J53" s="20">
+        <v>568.118109</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="19"/>
+      <c r="C54" s="21">
+        <v>711.76417000000004</v>
+      </c>
+      <c r="D54" s="19">
+        <v>1067.070387</v>
+      </c>
+      <c r="E54" s="19">
+        <v>579.95399899999995</v>
+      </c>
+      <c r="F54" s="20">
+        <v>2358.788556</v>
+      </c>
+      <c r="G54" s="19">
+        <v>144.95437100000001</v>
+      </c>
+      <c r="H54" s="19">
+        <v>2825.9003969999999</v>
+      </c>
+      <c r="I54" s="19">
+        <v>10524.009409</v>
+      </c>
+      <c r="J54" s="20">
+        <v>13494.864176999999</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="19"/>
+      <c r="C55" s="21">
+        <v>187.077316</v>
+      </c>
+      <c r="D55" s="19">
+        <v>6388.3719529999998</v>
+      </c>
+      <c r="E55" s="19">
+        <v>65.474723999999995</v>
+      </c>
+      <c r="F55" s="20">
+        <v>6640.9239930000003</v>
+      </c>
+      <c r="G55" s="19">
+        <v>254.22943599999999</v>
+      </c>
+      <c r="H55" s="19">
+        <v>4541.7773530000004</v>
+      </c>
+      <c r="I55" s="19">
+        <v>1665.341134</v>
+      </c>
+      <c r="J55" s="20">
+        <v>6461.3479230000003</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="19"/>
+      <c r="C56" s="21">
+        <v>802.29954899999996</v>
+      </c>
+      <c r="D56" s="19">
+        <v>881.29747899999995</v>
+      </c>
+      <c r="E56" s="19">
+        <v>38.683338999999997</v>
+      </c>
+      <c r="F56" s="20">
+        <v>1722.2803670000001</v>
+      </c>
+      <c r="G56" s="19">
+        <v>118.088283</v>
+      </c>
+      <c r="H56" s="19">
+        <v>1865.04739</v>
+      </c>
+      <c r="I56" s="19">
+        <v>1004.0904410000001</v>
+      </c>
+      <c r="J56" s="20">
+        <v>2987.2261140000001</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="19"/>
+      <c r="C57" s="21">
+        <v>47527.816744000003</v>
+      </c>
+      <c r="D57" s="19">
+        <v>5107.1674860000003</v>
+      </c>
+      <c r="E57" s="19">
+        <v>8446.9171100000003</v>
+      </c>
+      <c r="F57" s="20">
+        <v>61081.901339999997</v>
+      </c>
+      <c r="G57" s="19">
+        <v>3830.9781050000001</v>
+      </c>
+      <c r="H57" s="19">
+        <v>40007.015497</v>
+      </c>
+      <c r="I57" s="19">
+        <v>24665.565383000001</v>
+      </c>
+      <c r="J57" s="20">
+        <v>68503.558984999996</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="19"/>
+      <c r="C58" s="21">
+        <v>1317.912851</v>
+      </c>
+      <c r="D58" s="19">
+        <v>4042.9481329999999</v>
+      </c>
+      <c r="E58" s="19">
+        <v>373.984194</v>
+      </c>
+      <c r="F58" s="20">
+        <v>5734.8451779999996</v>
+      </c>
+      <c r="G58" s="19">
+        <v>2246.6821030000001</v>
+      </c>
+      <c r="H58" s="19">
+        <v>8492.6251599999996</v>
+      </c>
+      <c r="I58" s="19">
+        <v>4360.7633669999996</v>
+      </c>
+      <c r="J58" s="20">
+        <v>15100.07063</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="19"/>
+      <c r="C59" s="21">
+        <v>1421.3217030000001</v>
+      </c>
+      <c r="D59" s="19">
+        <v>72.375500000000002</v>
+      </c>
+      <c r="E59" s="19">
+        <v>25.681405000000002</v>
+      </c>
+      <c r="F59" s="20">
+        <v>1519.378608</v>
+      </c>
+      <c r="G59" s="19">
+        <v>41.033014000000001</v>
+      </c>
+      <c r="H59" s="19">
+        <v>1137.1913099999999</v>
+      </c>
+      <c r="I59" s="19">
+        <v>709.61883</v>
+      </c>
+      <c r="J59" s="20">
+        <v>1887.8431539999999</v>
+      </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="C60" s="23">
+        <v>1411.698811</v>
+      </c>
+      <c r="D60" s="24">
+        <v>4870.3597179999997</v>
+      </c>
+      <c r="E60" s="24">
+        <v>319.30178599999999</v>
+      </c>
+      <c r="F60" s="25">
+        <v>6601.3603149999999</v>
+      </c>
+      <c r="G60" s="24">
+        <v>400.83560699999998</v>
+      </c>
+      <c r="H60" s="24">
+        <v>8711.6763609999998</v>
+      </c>
+      <c r="I60" s="24">
+        <v>2937.2015449999999</v>
+      </c>
+      <c r="J60" s="25">
+        <v>12049.713513000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28" t="s">
+      <c r="C61" s="28">
+        <v>81264.454549000002</v>
+      </c>
+      <c r="D61" s="29">
+        <v>70989.683325999998</v>
+      </c>
+      <c r="E61" s="29">
+        <v>14556.383915</v>
+      </c>
+      <c r="F61" s="30">
+        <v>166810.52179</v>
+      </c>
+      <c r="G61" s="29">
+        <v>12623.216315</v>
+      </c>
+      <c r="H61" s="29">
+        <v>106643.122712</v>
+      </c>
+      <c r="I61" s="29">
+        <v>64555.304192000003</v>
+      </c>
+      <c r="J61" s="30">
+        <v>183821.64321899999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="31"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50" t="s">
+      <c r="C62" s="50">
+        <v>311964.06036800001</v>
+      </c>
+      <c r="D62" s="51">
+        <v>323182.454952</v>
+      </c>
+      <c r="E62" s="51">
+        <v>111135.54849099999</v>
+      </c>
+      <c r="F62" s="52">
+        <v>746282.06381099997</v>
+      </c>
+      <c r="G62" s="51">
+        <v>75035.765004000001</v>
+      </c>
+      <c r="H62" s="51">
+        <v>451210.84557399998</v>
+      </c>
+      <c r="I62" s="51">
+        <v>238625.08217899999</v>
+      </c>
+      <c r="J62" s="52">
+        <v>764871.69275699998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="48"/>
+      <c r="B63" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="53"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50" t="s">
+      <c r="C63" s="50">
+        <v>2849586.9919110001</v>
+      </c>
+      <c r="D63" s="51">
+        <v>10789212.432136999</v>
+      </c>
+      <c r="E63" s="51">
+        <v>7589696.6151909996</v>
+      </c>
+      <c r="F63" s="52">
+        <v>21228496.039239001</v>
+      </c>
+      <c r="G63" s="51">
+        <v>3021316.93035</v>
+      </c>
+      <c r="H63" s="51">
+        <v>10483197.401662</v>
+      </c>
+      <c r="I63" s="51">
+        <v>7317593.4461329998</v>
+      </c>
+      <c r="J63" s="52">
+        <v>20822107.778145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="53"/>
+      <c r="B64" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="53"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="55" t="s">
+      <c r="C64" s="55">
+        <v>453731.51656399999</v>
+      </c>
+      <c r="D64" s="56">
+        <v>610010.39765599999</v>
+      </c>
+      <c r="E64" s="56">
+        <v>386138.255381</v>
+      </c>
+      <c r="F64" s="57">
+        <v>1449880.1696009999</v>
+      </c>
+      <c r="G64" s="56">
+        <v>108002.54939099999</v>
+      </c>
+      <c r="H64" s="56">
+        <v>799851.785087</v>
+      </c>
+      <c r="I64" s="56">
+        <v>429485.447682</v>
+      </c>
+      <c r="J64" s="57">
+        <v>1337339.7821599999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="53"/>
+      <c r="B65" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="58"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="59" t="s">
+      <c r="C65" s="59">
+        <v>389535.06015999999</v>
+      </c>
+      <c r="D65" s="60">
+        <v>2818515.056326</v>
+      </c>
+      <c r="E65" s="60">
+        <v>2551935.0445110002</v>
+      </c>
+      <c r="F65" s="61">
+        <v>5759985.1609969996</v>
+      </c>
+      <c r="G65" s="60">
+        <v>1222993.7799760001</v>
+      </c>
+      <c r="H65" s="60">
+        <v>2291978.8928530002</v>
+      </c>
+      <c r="I65" s="60">
+        <v>985822.53994100005</v>
+      </c>
+      <c r="J65" s="61">
+        <v>4500795.2127700001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="53"/>
+      <c r="B66" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="62"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="54"/>
-      <c r="B66" s="63" t="s">
+      <c r="C66" s="63">
+        <v>3161551.0522790002</v>
+      </c>
+      <c r="D66" s="64">
+        <v>11112394.887088999</v>
+      </c>
+      <c r="E66" s="64">
+        <v>7700832.1636819998</v>
+      </c>
+      <c r="F66" s="65">
+        <v>21974778.103050001</v>
+      </c>
+      <c r="G66" s="64">
+        <v>3096352.6953540002</v>
+      </c>
+      <c r="H66" s="64">
+        <v>10934408.247236</v>
+      </c>
+      <c r="I66" s="64">
+        <v>7556218.5283120004</v>
+      </c>
+      <c r="J66" s="65">
+        <v>21586979.470902</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="53"/>
+      <c r="B67" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="66"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="59" t="s">
+      <c r="C67" s="59">
+        <v>69257.188230999993</v>
+      </c>
+      <c r="D67" s="60">
+        <v>101064.539338</v>
+      </c>
+      <c r="E67" s="60">
+        <v>28473.526293999999</v>
+      </c>
+      <c r="F67" s="61">
+        <v>198795.25386299999</v>
+      </c>
+      <c r="G67" s="60">
+        <v>29856.289122999999</v>
+      </c>
+      <c r="H67" s="60">
+        <v>160984.66857499999</v>
+      </c>
+      <c r="I67" s="60">
+        <v>76410.458689000006</v>
+      </c>
+      <c r="J67" s="61">
+        <v>267251.416387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="53"/>
+      <c r="B68" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="62"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="59" t="s">
+      <c r="C68" s="59">
+        <v>143385.012946</v>
+      </c>
+      <c r="D68" s="60">
+        <v>149756.49014899999</v>
+      </c>
+      <c r="E68" s="60">
+        <v>50641.032640999998</v>
+      </c>
+      <c r="F68" s="61">
+        <v>343782.53573599999</v>
+      </c>
+      <c r="G68" s="60">
+        <v>45405.275905000002</v>
+      </c>
+      <c r="H68" s="60">
+        <v>244429.11883399999</v>
+      </c>
+      <c r="I68" s="60">
+        <v>118301.36784599999</v>
+      </c>
+      <c r="J68" s="61">
+        <v>408135.76258500002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="53"/>
+      <c r="B69" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="62"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
-      <c r="B69" s="59" t="s">
+      <c r="C69" s="59">
+        <v>13704.793637999999</v>
+      </c>
+      <c r="D69" s="60">
+        <v>33033.965640000002</v>
+      </c>
+      <c r="E69" s="60">
+        <v>3354.5143969999999</v>
+      </c>
+      <c r="F69" s="61">
+        <v>50093.273674999997</v>
+      </c>
+      <c r="G69" s="60">
+        <v>4479.4054720000004</v>
+      </c>
+      <c r="H69" s="60">
+        <v>42225.604509999997</v>
+      </c>
+      <c r="I69" s="60">
+        <v>21386.267220000002</v>
+      </c>
+      <c r="J69" s="61">
+        <v>68091.277201999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="53"/>
+      <c r="B70" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="62"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
-      <c r="B70" s="59" t="s">
+      <c r="C70" s="59">
+        <v>65428.551230999998</v>
+      </c>
+      <c r="D70" s="60">
+        <v>28577.301930000001</v>
+      </c>
+      <c r="E70" s="60">
+        <v>10065.484688</v>
+      </c>
+      <c r="F70" s="61">
+        <v>104071.337849</v>
+      </c>
+      <c r="G70" s="60">
+        <v>2790.4549179999999</v>
+      </c>
+      <c r="H70" s="60">
+        <v>30661.525405</v>
+      </c>
+      <c r="I70" s="60">
+        <v>22186.507495999998</v>
+      </c>
+      <c r="J70" s="61">
+        <v>55638.487819000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="53"/>
+      <c r="B71" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="62"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
-      <c r="B71" s="59" t="s">
+      <c r="C71" s="59">
+        <v>81264.454549000002</v>
+      </c>
+      <c r="D71" s="60">
+        <v>70989.683325999998</v>
+      </c>
+      <c r="E71" s="60">
+        <v>14556.383915</v>
+      </c>
+      <c r="F71" s="61">
+        <v>166810.52179</v>
+      </c>
+      <c r="G71" s="60">
+        <v>12623.216315</v>
+      </c>
+      <c r="H71" s="60">
+        <v>106643.122712</v>
+      </c>
+      <c r="I71" s="60">
+        <v>64555.304192000003</v>
+      </c>
+      <c r="J71" s="61">
+        <v>183821.64321899999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="53"/>
+      <c r="B72" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="62"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="59" t="s">
+      <c r="C72" s="59">
+        <v>12801.328425</v>
+      </c>
+      <c r="D72" s="60">
+        <v>13498.131583</v>
+      </c>
+      <c r="E72" s="60">
+        <v>4512.7043009999998</v>
+      </c>
+      <c r="F72" s="61">
+        <v>30812.164309</v>
+      </c>
+      <c r="G72" s="60">
+        <v>4730.5366809999996</v>
+      </c>
+      <c r="H72" s="60">
+        <v>49800.937460000001</v>
+      </c>
+      <c r="I72" s="60">
+        <v>21611.027378999999</v>
+      </c>
+      <c r="J72" s="61">
+        <v>76142.501520000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="53"/>
+      <c r="B73" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="62"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
-      <c r="B73" s="59" t="s">
+      <c r="C73" s="59">
+        <v>107232.450345</v>
+      </c>
+      <c r="D73" s="60">
+        <v>143649.29838299999</v>
+      </c>
+      <c r="E73" s="60">
+        <v>40322.470707</v>
+      </c>
+      <c r="F73" s="61">
+        <v>291204.21943499998</v>
+      </c>
+      <c r="G73" s="60">
+        <v>18656.029457000001</v>
+      </c>
+      <c r="H73" s="60">
+        <v>133936.149981</v>
+      </c>
+      <c r="I73" s="60">
+        <v>71523.438557000001</v>
+      </c>
+      <c r="J73" s="61">
+        <v>224115.61799500001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="53"/>
+      <c r="B74" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="62"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="59" t="s">
+      <c r="C74" s="59">
+        <v>76261.530165999997</v>
+      </c>
+      <c r="D74" s="60">
+        <v>53748.134034000002</v>
+      </c>
+      <c r="E74" s="60">
+        <v>35061.062032000002</v>
+      </c>
+      <c r="F74" s="61">
+        <v>165070.72623199999</v>
+      </c>
+      <c r="G74" s="60">
+        <v>21845.637480000001</v>
+      </c>
+      <c r="H74" s="60">
+        <v>97603.898411000002</v>
+      </c>
+      <c r="I74" s="60">
+        <v>45935.201306000003</v>
+      </c>
+      <c r="J74" s="61">
+        <v>165384.73719700001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="53"/>
+      <c r="B75" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="62"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
-      <c r="B75" s="59" t="s">
+      <c r="C75" s="66">
+        <v>42448.665372000003</v>
+      </c>
+      <c r="D75" s="67">
+        <v>4950.9909090000001</v>
+      </c>
+      <c r="E75" s="67">
+        <v>7979.9274560000003</v>
+      </c>
+      <c r="F75" s="68">
+        <v>55379.583737000001</v>
+      </c>
+      <c r="G75" s="67">
+        <v>4554.968946</v>
+      </c>
+      <c r="H75" s="67">
+        <v>23253.814785999999</v>
+      </c>
+      <c r="I75" s="67">
+        <v>9901.7159840000004</v>
+      </c>
+      <c r="J75" s="68">
+        <v>37710.499715999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="53"/>
+      <c r="B76" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="69"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="70" t="s">
+      <c r="C76" s="70">
+        <v>183201.65669</v>
+      </c>
+      <c r="D76" s="71">
+        <v>1066312.172302</v>
+      </c>
+      <c r="E76" s="71">
+        <v>687700.57146300003</v>
+      </c>
+      <c r="F76" s="72">
+        <v>1937214.4004550001</v>
+      </c>
+      <c r="G76" s="71">
+        <v>208207.30717799999</v>
+      </c>
+      <c r="H76" s="71">
+        <v>1060729.9823139999</v>
+      </c>
+      <c r="I76" s="71">
+        <v>409240.98024</v>
+      </c>
+      <c r="J76" s="72">
+        <v>1678178.2697320001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="53"/>
+      <c r="B77" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="73"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-      <c r="B77" s="59" t="s">
+      <c r="C77" s="59">
+        <v>366778.73967600003</v>
+      </c>
+      <c r="D77" s="60">
+        <v>314057.42105599999</v>
+      </c>
+      <c r="E77" s="60">
+        <v>67393.899978000001</v>
+      </c>
+      <c r="F77" s="61">
+        <v>748230.06070999999</v>
+      </c>
+      <c r="G77" s="60">
+        <v>68769.350032000002</v>
+      </c>
+      <c r="H77" s="60">
+        <v>365724.20579799998</v>
+      </c>
+      <c r="I77" s="60">
+        <v>213969.38449600001</v>
+      </c>
+      <c r="J77" s="61">
+        <v>648462.94032599998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="53"/>
+      <c r="B78" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="62"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="59" t="s">
+      <c r="C78" s="59">
+        <v>376911.68662599998</v>
+      </c>
+      <c r="D78" s="60">
+        <v>3519277.7745070001</v>
+      </c>
+      <c r="E78" s="60">
+        <v>2547290.0266029998</v>
+      </c>
+      <c r="F78" s="61">
+        <v>6443479.4877359997</v>
+      </c>
+      <c r="G78" s="60">
+        <v>833404.98326400004</v>
+      </c>
+      <c r="H78" s="60">
+        <v>3296162.5588309998</v>
+      </c>
+      <c r="I78" s="60">
+        <v>2432423.1911860001</v>
+      </c>
+      <c r="J78" s="61">
+        <v>6561990.7332809996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="53"/>
+      <c r="B79" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="62"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="63" t="s">
+      <c r="C79" s="63">
+        <v>1423464.356564</v>
+      </c>
+      <c r="D79" s="64">
+        <v>6699516.0923030004</v>
+      </c>
+      <c r="E79" s="64">
+        <v>4536298.429645</v>
+      </c>
+      <c r="F79" s="65">
+        <v>12659278.878512001</v>
+      </c>
+      <c r="G79" s="64">
+        <v>1575648.6432960001</v>
+      </c>
+      <c r="H79" s="64">
+        <v>6802655.7087690001</v>
+      </c>
+      <c r="I79" s="64">
+        <v>5378036.8386209998</v>
+      </c>
+      <c r="J79" s="65">
+        <v>13756341.190686001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="53"/>
+      <c r="B80" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="66"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
-      <c r="B80" s="70" t="s">
+      <c r="C80" s="70">
+        <v>124161.436401</v>
+      </c>
+      <c r="D80" s="71">
+        <v>24291.977078</v>
+      </c>
+      <c r="E80" s="71">
+        <v>19903.236075000001</v>
+      </c>
+      <c r="F80" s="72">
+        <v>168356.649554</v>
+      </c>
+      <c r="G80" s="71">
+        <v>9520.2295080000004</v>
+      </c>
+      <c r="H80" s="71">
+        <v>56345.230480999999</v>
+      </c>
+      <c r="I80" s="71">
+        <v>35475.039490000003</v>
+      </c>
+      <c r="J80" s="72">
+        <v>101340.49947900001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="53"/>
+      <c r="B81" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="72"/>
-      <c r="J80" s="73"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
-      <c r="B81" s="59" t="s">
+      <c r="C81" s="59">
+        <v>831725.46519200003</v>
+      </c>
+      <c r="D81" s="60">
+        <v>648693.066766</v>
+      </c>
+      <c r="E81" s="60">
+        <v>236964.859127</v>
+      </c>
+      <c r="F81" s="61">
+        <v>1717383.391085</v>
+      </c>
+      <c r="G81" s="60">
+        <v>89183.880820000006</v>
+      </c>
+      <c r="H81" s="60">
+        <v>604698.56690500001</v>
+      </c>
+      <c r="I81" s="60">
+        <v>543654.98161100002</v>
+      </c>
+      <c r="J81" s="61">
+        <v>1237537.429336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="53"/>
+      <c r="B82" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="62"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="59" t="s">
+      <c r="C82" s="59">
+        <v>187802.62396699999</v>
+      </c>
+      <c r="D82" s="60">
+        <v>298890.47787399997</v>
+      </c>
+      <c r="E82" s="60">
+        <v>91232.312416000001</v>
+      </c>
+      <c r="F82" s="61">
+        <v>577925.41425699997</v>
+      </c>
+      <c r="G82" s="60">
+        <v>65515.535495999997</v>
+      </c>
+      <c r="H82" s="60">
+        <v>394865.615093</v>
+      </c>
+      <c r="I82" s="60">
+        <v>203150.04268899999</v>
+      </c>
+      <c r="J82" s="61">
+        <v>663531.19327799999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="53"/>
+      <c r="B83" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
-      <c r="J82" s="62"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="54"/>
-      <c r="B83" s="63" t="s">
+      <c r="C83" s="63">
+        <v>2017861.526719</v>
+      </c>
+      <c r="D83" s="64">
+        <v>10140519.365371</v>
+      </c>
+      <c r="E83" s="64">
+        <v>7352731.7560639996</v>
+      </c>
+      <c r="F83" s="65">
+        <v>19511112.648154002</v>
+      </c>
+      <c r="G83" s="64">
+        <v>2932133.04953</v>
+      </c>
+      <c r="H83" s="64">
+        <v>9878498.8347570002</v>
+      </c>
+      <c r="I83" s="64">
+        <v>6773938.4645220004</v>
+      </c>
+      <c r="J83" s="65">
+        <v>19584570.348809</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="53"/>
+      <c r="B84" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="64"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="66"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
-      <c r="B84" s="70" t="s">
+      <c r="C84" s="70">
+        <v>28723.138472999999</v>
+      </c>
+      <c r="D84" s="71">
+        <v>52861.998701999997</v>
+      </c>
+      <c r="E84" s="71">
+        <v>7788.2784149999998</v>
+      </c>
+      <c r="F84" s="72">
+        <v>89373.415590000004</v>
+      </c>
+      <c r="G84" s="71">
+        <v>8638.3635080000004</v>
+      </c>
+      <c r="H84" s="71">
+        <v>68424.619076999996</v>
+      </c>
+      <c r="I84" s="71">
+        <v>39016.517872999997</v>
+      </c>
+      <c r="J84" s="72">
+        <v>116079.50045799999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="53"/>
+      <c r="B85" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="71"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="73"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
-      <c r="B85" s="74" t="s">
+      <c r="C85" s="59">
+        <v>2800.7498340000002</v>
+      </c>
+      <c r="D85" s="60">
+        <v>1194.9855070000001</v>
+      </c>
+      <c r="E85" s="60">
+        <v>385.29352999999998</v>
+      </c>
+      <c r="F85" s="61">
+        <v>4381.0288710000004</v>
+      </c>
+      <c r="G85" s="60">
+        <v>2555.745148</v>
+      </c>
+      <c r="H85" s="60">
+        <v>15124.399740999999</v>
+      </c>
+      <c r="I85" s="60">
+        <v>6962.1082500000002</v>
+      </c>
+      <c r="J85" s="61">
+        <v>24642.253139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="53"/>
+      <c r="B86" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="62"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
-      <c r="B86" s="59" t="s">
+      <c r="C86" s="59">
+        <v>158235.33103900001</v>
+      </c>
+      <c r="D86" s="60">
+        <v>167867.883592</v>
+      </c>
+      <c r="E86" s="60">
+        <v>59078.396116999997</v>
+      </c>
+      <c r="F86" s="61">
+        <v>385181.61074799998</v>
+      </c>
+      <c r="G86" s="60">
+        <v>48068.058762000001</v>
+      </c>
+      <c r="H86" s="60">
+        <v>261535.475745</v>
+      </c>
+      <c r="I86" s="60">
+        <v>131555.63907899999</v>
+      </c>
+      <c r="J86" s="61">
+        <v>441159.17358599999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="53"/>
+      <c r="B87" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="61"/>
-      <c r="J86" s="62"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
-      <c r="B87" s="59" t="s">
+      <c r="C87" s="59">
+        <v>99038.245932999998</v>
+      </c>
+      <c r="D87" s="60">
+        <v>586984.74343499995</v>
+      </c>
+      <c r="E87" s="60">
+        <v>546755.18337800005</v>
+      </c>
+      <c r="F87" s="61">
+        <v>1232778.1727460001</v>
+      </c>
+      <c r="G87" s="60">
+        <v>319080.63747999998</v>
+      </c>
+      <c r="H87" s="60">
+        <v>802367.51876000001</v>
+      </c>
+      <c r="I87" s="60">
+        <v>337262.23334199999</v>
+      </c>
+      <c r="J87" s="61">
+        <v>1458710.389582</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="53"/>
+      <c r="B88" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="62"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="59" t="s">
+      <c r="C88" s="59">
+        <v>122492.27254599999</v>
+      </c>
+      <c r="D88" s="60">
+        <v>101068.84602899999</v>
+      </c>
+      <c r="E88" s="60">
+        <v>43451.091207999998</v>
+      </c>
+      <c r="F88" s="61">
+        <v>267012.209783</v>
+      </c>
+      <c r="G88" s="60">
+        <v>17423.232204</v>
+      </c>
+      <c r="H88" s="60">
+        <v>106848.786484</v>
+      </c>
+      <c r="I88" s="60">
+        <v>62024.565150000002</v>
+      </c>
+      <c r="J88" s="61">
+        <v>186296.58383799999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="53"/>
+      <c r="B89" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="62"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="59" t="s">
+      <c r="C89" s="59">
+        <v>797309.42712200002</v>
+      </c>
+      <c r="D89" s="60">
+        <v>3014132.8005499998</v>
+      </c>
+      <c r="E89" s="60">
+        <v>2523952.5610910002</v>
+      </c>
+      <c r="F89" s="61">
+        <v>6335394.7887629997</v>
+      </c>
+      <c r="G89" s="60">
+        <v>1047330.180385</v>
+      </c>
+      <c r="H89" s="60">
+        <v>2524411.981507</v>
+      </c>
+      <c r="I89" s="60">
+        <v>1232008.571332</v>
+      </c>
+      <c r="J89" s="61">
+        <v>4803750.7332239999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="53"/>
+      <c r="B90" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="61"/>
-      <c r="J89" s="62"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="54"/>
-      <c r="B90" s="63" t="s">
+      <c r="C90" s="63">
+        <v>1945315.697769</v>
+      </c>
+      <c r="D90" s="64">
+        <v>7185157.3120189998</v>
+      </c>
+      <c r="E90" s="64">
+        <v>4518585.9602809995</v>
+      </c>
+      <c r="F90" s="65">
+        <v>13649058.970069</v>
+      </c>
+      <c r="G90" s="64">
+        <v>1651525.243761</v>
+      </c>
+      <c r="H90" s="64">
+        <v>7136945.0146960001</v>
+      </c>
+      <c r="I90" s="64">
+        <v>5738197.5540009998</v>
+      </c>
+      <c r="J90" s="65">
+        <v>14526667.812457999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="53"/>
+      <c r="B91" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="64"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="65"/>
-      <c r="J90" s="66"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
-      <c r="B91" s="70" t="s">
+      <c r="C91" s="70">
+        <v>86048.721013000002</v>
+      </c>
+      <c r="D91" s="71">
+        <v>96854.194633000006</v>
+      </c>
+      <c r="E91" s="71">
+        <v>16542.242269999999</v>
+      </c>
+      <c r="F91" s="72">
+        <v>199445.157916</v>
+      </c>
+      <c r="G91" s="71">
+        <v>15745.950929000001</v>
+      </c>
+      <c r="H91" s="71">
+        <v>137474.86045099999</v>
+      </c>
+      <c r="I91" s="71">
+        <v>73296.094488999996</v>
+      </c>
+      <c r="J91" s="72">
+        <v>226516.90586900001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="53"/>
+      <c r="B92" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="C91" s="71"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="73"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="72"/>
-      <c r="I91" s="72"/>
-      <c r="J91" s="73"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
-      <c r="B92" s="59" t="s">
+      <c r="C92" s="59">
+        <v>16085.921421999999</v>
+      </c>
+      <c r="D92" s="60">
+        <v>21230.026782000001</v>
+      </c>
+      <c r="E92" s="60">
+        <v>88039.209516000003</v>
+      </c>
+      <c r="F92" s="61">
+        <v>125355.15772</v>
+      </c>
+      <c r="G92" s="60">
+        <v>17071.992525000001</v>
+      </c>
+      <c r="H92" s="60">
+        <v>108469.36897</v>
+      </c>
+      <c r="I92" s="60">
+        <v>38189.664126999996</v>
+      </c>
+      <c r="J92" s="61">
+        <v>163731.02562199999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="53"/>
+      <c r="B93" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="60"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="62"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="59" t="s">
+      <c r="C93" s="59">
+        <v>539.15280399999995</v>
+      </c>
+      <c r="D93" s="60">
+        <v>2499.8070320000002</v>
+      </c>
+      <c r="E93" s="60">
+        <v>879.19337700000005</v>
+      </c>
+      <c r="F93" s="61">
+        <v>3918.1532130000001</v>
+      </c>
+      <c r="G93" s="60">
+        <v>889.39132700000005</v>
+      </c>
+      <c r="H93" s="60">
+        <v>7114.5084720000004</v>
+      </c>
+      <c r="I93" s="60">
+        <v>3304.177729</v>
+      </c>
+      <c r="J93" s="61">
+        <v>11308.077528</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="53"/>
+      <c r="B94" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="62"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="61"/>
-      <c r="J93" s="62"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
-      <c r="B94" s="59" t="s">
+      <c r="C94" s="59">
+        <v>25119.039644</v>
+      </c>
+      <c r="D94" s="60">
+        <v>266832.91786500002</v>
+      </c>
+      <c r="E94" s="60">
+        <v>110954.572332</v>
+      </c>
+      <c r="F94" s="61">
+        <v>402906.52984099998</v>
+      </c>
+      <c r="G94" s="60">
+        <v>47166.804104000003</v>
+      </c>
+      <c r="H94" s="60">
+        <v>335842.63718700001</v>
+      </c>
+      <c r="I94" s="60">
+        <v>138291.50352699999</v>
+      </c>
+      <c r="J94" s="61">
+        <v>521300.94481800002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="53"/>
+      <c r="B95" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="C94" s="60"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="62"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="61"/>
-      <c r="I94" s="61"/>
-      <c r="J94" s="62"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
-      <c r="B95" s="59" t="s">
+      <c r="C95" s="59">
+        <v>21405.480314</v>
+      </c>
+      <c r="D95" s="60">
+        <v>45803.219645999998</v>
+      </c>
+      <c r="E95" s="60">
+        <v>3511.6706680000002</v>
+      </c>
+      <c r="F95" s="61">
+        <v>70720.370628000004</v>
+      </c>
+      <c r="G95" s="60">
+        <v>5408.0301579999996</v>
+      </c>
+      <c r="H95" s="60">
+        <v>56359.659893999997</v>
+      </c>
+      <c r="I95" s="60">
+        <v>25926.848666999998</v>
+      </c>
+      <c r="J95" s="61">
+        <v>87694.538719000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="53"/>
+      <c r="B96" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="C95" s="60"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="61"/>
-      <c r="J95" s="62"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="54"/>
-      <c r="B96" s="63" t="s">
+      <c r="C96" s="63">
+        <v>122384.897084</v>
+      </c>
+      <c r="D96" s="64">
+        <v>102044.969555</v>
+      </c>
+      <c r="E96" s="64">
+        <v>22110.098253</v>
+      </c>
+      <c r="F96" s="65">
+        <v>246539.96489199999</v>
+      </c>
+      <c r="G96" s="64">
+        <v>16424.872352999999</v>
+      </c>
+      <c r="H96" s="64">
+        <v>119975.332943</v>
+      </c>
+      <c r="I96" s="64">
+        <v>109740.250531</v>
+      </c>
+      <c r="J96" s="65">
+        <v>246140.455827</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="53"/>
+      <c r="B97" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="C96" s="64"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="65"/>
-      <c r="J96" s="66"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
-      <c r="B97" s="70" t="s">
+      <c r="C97" s="70">
+        <v>200735.49884399999</v>
+      </c>
+      <c r="D97" s="71">
+        <v>128616.57517700001</v>
+      </c>
+      <c r="E97" s="71">
+        <v>34473.206341999998</v>
+      </c>
+      <c r="F97" s="72">
+        <v>363825.280363</v>
+      </c>
+      <c r="G97" s="71">
+        <v>24954.609346000001</v>
+      </c>
+      <c r="H97" s="71">
+        <v>217652.80020699999</v>
+      </c>
+      <c r="I97" s="71">
+        <v>124711.054351</v>
+      </c>
+      <c r="J97" s="72">
+        <v>367318.463904</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="53"/>
+      <c r="B98" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="72"/>
-      <c r="I97" s="72"/>
-      <c r="J97" s="73"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="54"/>
-      <c r="B98" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="65"/>
-      <c r="I98" s="65"/>
-      <c r="J98" s="66"/>
+      <c r="C98" s="63">
+        <v>144527.41605999999</v>
+      </c>
+      <c r="D98" s="64">
+        <v>80846.467749999996</v>
+      </c>
+      <c r="E98" s="64">
+        <v>121973.078853</v>
+      </c>
+      <c r="F98" s="65">
+        <v>347346.96266299998</v>
+      </c>
+      <c r="G98" s="64">
+        <v>44884.245916</v>
+      </c>
+      <c r="H98" s="64">
+        <v>236615.512048</v>
+      </c>
+      <c r="I98" s="64">
+        <v>123090.655931</v>
+      </c>
+      <c r="J98" s="65">
+        <v>404590.41389500001</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="68"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="67"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
-      <c r="I100" s="77"/>
-      <c r="J100" s="77"/>
+        <v>161</v>
+      </c>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="76"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="77"/>
-      <c r="I101" s="77"/>
-      <c r="J101" s="77"/>
+        <v>162</v>
+      </c>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-      <c r="H102" s="77"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="77"/>
+        <v>163</v>
+      </c>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="76"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="77"/>
-      <c r="H103" s="77"/>
-      <c r="I103" s="77"/>
-      <c r="J103" s="77"/>
+        <v>164</v>
+      </c>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="77"/>
-      <c r="H104" s="77"/>
-      <c r="I104" s="77"/>
-      <c r="J104" s="77"/>
+        <v>165</v>
+      </c>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="76"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="76"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="77"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="76"/>
+      <c r="J106" s="76"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="77"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="77"/>
-      <c r="I105" s="77"/>
-      <c r="J105" s="77"/>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="78"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="77"/>
-      <c r="I106" s="77"/>
-      <c r="J106" s="77"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="77"/>
-      <c r="H107" s="77"/>
-      <c r="I107" s="77"/>
-      <c r="J107" s="77"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="76"/>
+      <c r="I107" s="76"/>
+      <c r="J107" s="76"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="77"/>
-      <c r="H108" s="77"/>
-      <c r="I108" s="77"/>
-      <c r="J108" s="77"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="76"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="76"/>
+      <c r="I109" s="76"/>
+      <c r="J109" s="76"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="77"/>
-      <c r="I109" s="77"/>
-      <c r="J109" s="77"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
-      <c r="I110" s="77"/>
-      <c r="J110" s="77"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="82" t="s">
-        <v>172</v>
-      </c>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
-      <c r="I111" s="77"/>
-      <c r="J111" s="77"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="76"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
-      <c r="I112" s="77"/>
-      <c r="J112" s="77"/>
+        <v>168</v>
+      </c>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="76"/>
+      <c r="J112" s="76"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="80"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:O7"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{FB8F8B48-D4A5-4722-A3CE-1B739A02359E}"/>
-    <hyperlink ref="B109" r:id="rId2" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{973385DE-01D2-432D-8E85-14B1B738A895}"/>
-    <hyperlink ref="B110" r:id="rId3" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B05FFA5C-00E8-4CC3-BCF7-A14D4061CBAD}"/>
-    <hyperlink ref="B107" r:id="rId4" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{8EA2A299-F8F4-468D-BFD2-3E9678E0E5B3}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{BD79576D-E4EF-4745-90D9-2CF46D24734D}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{50DBDFAE-A073-4926-A015-EDF9527F0281}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{92543F8C-4651-4242-8E41-5150A8651C9B}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{405B60A9-DDC2-43CD-8661-AEE6A1DB8745}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{880BF583-10D6-4EC5-B0CF-2F04193781C1}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{2F224B61-7003-4D83-837C-10F75341DADB}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{4A232AAB-6941-4715-AAC7-A407328DE22C}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{B1E7E2A5-BD1C-4BE5-8BFC-9162535CF6E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/DDAf_2025_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86D01981-2922-4FE6-908B-2EA177601326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0B25158-782A-4F9A-A2B3-C5BCF6C215AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{566E0CDD-CC24-497A-81AE-3A4A0C10F277}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{5398FBEB-6297-4347-A648-DC9E6FBB9D06}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency.</t>
@@ -1442,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D97C4-D5C6-4BBF-A85D-4A2D9218A00D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BCEFCC-8152-4F4F-92EF-EDE1FD709267}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1450,15 +1450,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="14.42578125" style="80" customWidth="1"/>
-    <col min="11" max="26" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="14.453125" style="80" customWidth="1"/>
+    <col min="11" max="26" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1471,7 +1471,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>17098.195901999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>6618.2752410000003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>2050.2287609999998</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>1729.618254</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>3196.612333</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>18037.608380000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>7437.7758469999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>103408.86887799999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>10744.890821000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>9346.3321570000007</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>31</v>
@@ -1853,7 +1853,7 @@
         <v>179668.40657399999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>675.11779000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>34</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>8679.1987599999993</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>835.14619500000003</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>38</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>1349.6294829999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>6276.3311670000003</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>42</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>12862.227398999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>44</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>1001.9966470000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>4474.6887049999996</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>48</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>184.752456</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>50</v>
@@ -2171,7 +2171,7 @@
         <v>36339.088602000003</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>51</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>455.62778400000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>10314.788021</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>55</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>440.080828</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>57</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>19691.068310999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>59</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>20970.401367999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>61</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>5156.2725920000003</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>63</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>6632.3877460000003</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>2201.2033150000002</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>67</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>1645.3665639999999</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>69</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>5218.1798449999997</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>71</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>1617.4242609999999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>73</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>6261.0659809999997</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>75</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>17695.329335999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>77</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>12069.573732999999</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
         <v>79</v>
@@ -2649,7 +2649,7 @@
         <v>110368.76968500001</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>80</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>39917.494401999997</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>82</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>89289.047479999994</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>84</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>22421.047350000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>86</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>5361.8666929999999</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>88</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>72074.432543999996</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>90</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>25609.896207999998</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
         <v>92</v>
@@ -2871,7 +2871,7 @@
         <v>254673.78467699999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>93</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>5506.7038169999996</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>95</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>6120.8440270000001</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>97</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>1821.824869</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>99</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>19414.166836</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>101</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>2589.4013060000002</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>103</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>20576.713917000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>105</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>6739.2458420000003</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>107</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>568.118109</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>109</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>13494.864176999999</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>111</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>6461.3479230000003</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>113</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>2987.2261140000001</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>115</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>68503.558984999996</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>117</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>15100.07063</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>119</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>1887.8431539999999</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>121</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>12049.713513000001</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
         <v>123</v>
@@ -3381,7 +3381,7 @@
         <v>183821.64321899999</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
         <v>124</v>
@@ -3411,7 +3411,7 @@
         <v>764871.69275699998</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
         <v>125</v>
@@ -3441,7 +3441,7 @@
         <v>20822107.778145</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
         <v>126</v>
@@ -3471,7 +3471,7 @@
         <v>1337339.7821599999</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
         <v>127</v>
@@ -3501,7 +3501,7 @@
         <v>4500795.2127700001</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
         <v>128</v>
@@ -3531,7 +3531,7 @@
         <v>21586979.470902</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
         <v>129</v>
@@ -3561,7 +3561,7 @@
         <v>267251.416387</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
         <v>130</v>
@@ -3591,7 +3591,7 @@
         <v>408135.76258500002</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
         <v>131</v>
@@ -3621,7 +3621,7 @@
         <v>68091.277201999997</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
         <v>132</v>
@@ -3651,7 +3651,7 @@
         <v>55638.487819000002</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
         <v>133</v>
@@ -3681,7 +3681,7 @@
         <v>183821.64321899999</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
         <v>134</v>
@@ -3711,7 +3711,7 @@
         <v>76142.501520000005</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
         <v>135</v>
@@ -3741,7 +3741,7 @@
         <v>224115.61799500001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
         <v>136</v>
@@ -3771,7 +3771,7 @@
         <v>165384.73719700001</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
         <v>137</v>
@@ -3801,7 +3801,7 @@
         <v>37710.499715999998</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
         <v>138</v>
@@ -3831,7 +3831,7 @@
         <v>1678178.2697320001</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
         <v>139</v>
@@ -3861,7 +3861,7 @@
         <v>648462.94032599998</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
         <v>140</v>
@@ -3891,7 +3891,7 @@
         <v>6561990.7332809996</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
         <v>141</v>
@@ -3921,7 +3921,7 @@
         <v>13756341.190686001</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
         <v>142</v>
@@ -3951,7 +3951,7 @@
         <v>101340.49947900001</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
         <v>143</v>
@@ -3981,7 +3981,7 @@
         <v>1237537.429336</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
         <v>144</v>
@@ -4011,7 +4011,7 @@
         <v>663531.19327799999</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
         <v>145</v>
@@ -4041,7 +4041,7 @@
         <v>19584570.348809</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
         <v>146</v>
@@ -4071,7 +4071,7 @@
         <v>116079.50045799999</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
         <v>147</v>
@@ -4101,7 +4101,7 @@
         <v>24642.253139</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
         <v>148</v>
@@ -4131,7 +4131,7 @@
         <v>441159.17358599999</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
         <v>149</v>
@@ -4161,7 +4161,7 @@
         <v>1458710.389582</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
         <v>150</v>
@@ -4191,7 +4191,7 @@
         <v>186296.58383799999</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
         <v>151</v>
@@ -4221,7 +4221,7 @@
         <v>4803750.7332239999</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
         <v>152</v>
@@ -4251,7 +4251,7 @@
         <v>14526667.812457999</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
         <v>153</v>
@@ -4281,7 +4281,7 @@
         <v>226516.90586900001</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
         <v>154</v>
@@ -4311,7 +4311,7 @@
         <v>163731.02562199999</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
         <v>155</v>
@@ -4341,7 +4341,7 @@
         <v>11308.077528</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
         <v>156</v>
@@ -4371,7 +4371,7 @@
         <v>521300.94481800002</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
         <v>157</v>
@@ -4401,7 +4401,7 @@
         <v>87694.538719000004</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
         <v>158</v>
@@ -4431,7 +4431,7 @@
         <v>246140.455827</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
         <v>159</v>
@@ -4461,7 +4461,7 @@
         <v>367318.463904</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
         <v>160</v>
@@ -4491,7 +4491,7 @@
         <v>404590.41389500001</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="67"/>
@@ -4503,7 +4503,7 @@
       <c r="I99" s="67"/>
       <c r="J99" s="67"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
@@ -4516,7 +4516,7 @@
       <c r="I100" s="76"/>
       <c r="J100" s="76"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>162</v>
       </c>
@@ -4529,7 +4529,7 @@
       <c r="I101" s="76"/>
       <c r="J101" s="76"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>163</v>
       </c>
@@ -4542,7 +4542,7 @@
       <c r="I102" s="76"/>
       <c r="J102" s="76"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
@@ -4555,7 +4555,7 @@
       <c r="I103" s="76"/>
       <c r="J103" s="76"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>165</v>
       </c>
@@ -4568,7 +4568,7 @@
       <c r="I104" s="76"/>
       <c r="J104" s="76"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>166</v>
       </c>
@@ -4581,7 +4581,7 @@
       <c r="I105" s="76"/>
       <c r="J105" s="76"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -4592,7 +4592,7 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B107" s="78" t="s">
         <v>167</v>
       </c>
@@ -4605,7 +4605,7 @@
       <c r="I107" s="76"/>
       <c r="J107" s="76"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -4616,7 +4616,7 @@
       <c r="I108" s="76"/>
       <c r="J108" s="76"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="81" t="s">
         <v>169</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="I109" s="76"/>
       <c r="J109" s="76"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="81" t="s">
         <v>170</v>
       </c>
@@ -4642,7 +4642,7 @@
       <c r="I110" s="76"/>
       <c r="J110" s="76"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="81" t="s">
         <v>171</v>
       </c>
@@ -4655,7 +4655,7 @@
       <c r="I111" s="76"/>
       <c r="J111" s="76"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>168</v>
       </c>
@@ -4668,7 +4668,7 @@
       <c r="I112" s="76"/>
       <c r="J112" s="76"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="79"/>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -4681,12 +4681,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{92543F8C-4651-4242-8E41-5150A8651C9B}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{405B60A9-DDC2-43CD-8661-AEE6A1DB8745}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{880BF583-10D6-4EC5-B0CF-2F04193781C1}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{2F224B61-7003-4D83-837C-10F75341DADB}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{4A232AAB-6941-4715-AAC7-A407328DE22C}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{B1E7E2A5-BD1C-4BE5-8BFC-9162535CF6E0}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D755F6CA-2AD4-4E5F-95D8-2851BBEEE34F}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{7380AA5C-9E85-4266-BF21-A0A0DF6C97A5}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{4E71066C-BA37-4F5C-9AA1-B1277D73E84F}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{3203E491-B435-42D9-AECF-ACD48115463A}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{04BCDA72-661D-424D-A1E1-7342FFA8FB0A}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{51978797-35DA-4D88-9D32-6B4568474456}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/DDAf_2025_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab27.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0B25158-782A-4F9A-A2B3-C5BCF6C215AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50ED1AC7-B29F-419F-953C-5CC825C595DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{5398FBEB-6297-4347-A648-DC9E6FBB9D06}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{2C39F077-F80C-4BF1-8000-530E7B162EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab27'!$A$2:$J$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab27'!$A$1:$I$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab27'!$A$1:$E$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,45 +36,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
-  <si>
-    <t>Table 27: Trade by manufacturing intensity</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>Total exports of unprocessed goods (millions of USD), 2023</t>
-  </si>
-  <si>
-    <t>Total exports of semi-processed goods (millions of USD), 2023</t>
-  </si>
-  <si>
-    <t>Total exports of fully processed goods (millions of USD), 2023</t>
-  </si>
-  <si>
-    <t>Total exports of processed and unprocessed goods (millions of USD), 2023</t>
-  </si>
-  <si>
-    <t>Total imports of unprocessed goods (millions of USD), 2023</t>
-  </si>
-  <si>
-    <t>Total imports of semi-processed goods (millions of USD), 2023</t>
-  </si>
-  <si>
-    <t>Total imports of fully processed goods (millions of USD), 2023</t>
-  </si>
-  <si>
-    <t>Total imports of processed and unprocessed goods (millions of USD), 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="174">
+  <si>
+    <t>Tableau 27 : Intensité du commerce dans l’industrie manufacturière</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Exportations totales de produits non transformés (millions de dollars US), 2023</t>
+  </si>
+  <si>
+    <t>Exportations totales de produits semi-transformés (millions de dollars US), 2023</t>
+  </si>
+  <si>
+    <t>Exportations totales de produits transformés (millions de dollars US), 2023</t>
+  </si>
+  <si>
+    <t>Exportations totales de produits transformés et non transformés (millions de dollars US), 2023</t>
+  </si>
+  <si>
+    <t>Importations totales de produits non transformés (millions de dollars US), 2023</t>
+  </si>
+  <si>
+    <t>Importations totales de produits semi-transformés (millions de dollars US), 2023</t>
+  </si>
+  <si>
+    <t>Importations totales de produits transformés (millions de dollars US), 2023</t>
+  </si>
+  <si>
+    <t>Importations totales de produits transformés et non transformés (millions de dollars US), 2023</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>BWA</t>
@@ -111,19 +110,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -132,7 +131,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -144,58 +146,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -207,13 +209,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -231,7 +233,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -249,79 +251,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -333,7 +335,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -345,7 +347,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -357,13 +359,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -393,7 +395,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -408,22 +410,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -432,19 +434,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -462,107 +464,112 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency.</t>
-  </si>
-  <si>
-    <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated 30/01/2025).</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données.</t>
+  </si>
+  <si>
+    <t>Source : Calculs de l’auteur basés sur la base de données BACI sur le commerce international au niveau des produits du CEPII (mise à jour le 30/01/2025).</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,16 +701,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -930,7 +927,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1158,8 +1155,7 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1442,20 +1438,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BCEFCC-8152-4F4F-92EF-EDE1FD709267}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1108A9F-A719-424A-8B3F-16C009EA64E1}">
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="14.453125" style="80" customWidth="1"/>
-    <col min="11" max="26" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="79" customWidth="1"/>
+    <col min="4" max="26" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1471,7 +1464,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1824,9 +1817,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
+      <c r="A13" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="28">
         <v>97790.052999000007</v>
@@ -1855,10 +1850,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="21">
         <v>60.822066</v>
@@ -1887,10 +1882,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="21">
         <v>3593.3066480000002</v>
@@ -1919,10 +1914,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="21">
         <v>71.600498999999999</v>
@@ -1951,10 +1946,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="32">
         <v>3233.5574860000002</v>
@@ -1983,10 +1978,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="32">
         <v>7114.3832929999999</v>
@@ -2015,10 +2010,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="15">
         <v>4246.9797040000003</v>
@@ -2047,10 +2042,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="32">
         <v>2579.6505029999998</v>
@@ -2079,10 +2074,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="32">
         <v>7407.7748739999997</v>
@@ -2111,10 +2106,10 @@
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="36">
         <v>40.443505999999999</v>
@@ -2142,9 +2137,11 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
+      <c r="A23" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="28">
         <v>28348.518579</v>
@@ -2173,10 +2170,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="40">
         <v>89.359667999999999</v>
@@ -2205,10 +2202,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="21">
         <v>210.89410000000001</v>
@@ -2237,10 +2234,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="21">
         <v>378.706795</v>
@@ -2269,10 +2266,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="21">
         <v>2447.7810939999999</v>
@@ -2301,10 +2298,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="21">
         <v>3172.9064290000001</v>
@@ -2333,10 +2330,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="21">
         <v>1528.094558</v>
@@ -2365,10 +2362,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="21">
         <v>249.101868</v>
@@ -2397,10 +2394,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="21">
         <v>358.38943499999999</v>
@@ -2429,10 +2426,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="21">
         <v>65.537216000000001</v>
@@ -2461,10 +2458,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="21">
         <v>601.73425699999996</v>
@@ -2493,10 +2490,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="32">
         <v>631.11951799999997</v>
@@ -2525,10 +2522,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="21">
         <v>3765.6408729999998</v>
@@ -2557,10 +2554,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="21">
         <v>3263.3243320000001</v>
@@ -2589,10 +2586,10 @@
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="23">
         <v>1971.252154</v>
@@ -2620,9 +2617,11 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="26"/>
+      <c r="A38" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="28">
         <v>18733.842296999999</v>
@@ -2651,10 +2650,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="44">
         <v>31330.578406000001</v>
@@ -2683,10 +2682,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" s="21">
         <v>9565.6617779999997</v>
@@ -2715,10 +2714,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="32">
         <v>32994.922010000002</v>
@@ -2747,10 +2746,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="32">
         <v>2132.0224450000001</v>
@@ -2779,10 +2778,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" s="21">
         <v>7789.4577090000002</v>
@@ -2811,10 +2810,10 @@
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" s="36">
         <v>2014.5495960000001</v>
@@ -2842,9 +2841,11 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+      <c r="A45" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="B45" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" s="28">
         <v>85827.191944000006</v>
@@ -2873,10 +2874,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46" s="40">
         <v>838.24442999999997</v>
@@ -2905,10 +2906,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" s="21">
         <v>817.64798099999996</v>
@@ -2937,10 +2938,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" s="32">
         <v>15.784649</v>
@@ -2969,10 +2970,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" s="21">
         <v>9797.9900030000008</v>
@@ -3001,10 +3002,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" s="21">
         <v>132.68483800000001</v>
@@ -3033,10 +3034,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" s="15">
         <v>8059.6024660000003</v>
@@ -3065,10 +3066,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" s="21">
         <v>8143.6831410000004</v>
@@ -3097,10 +3098,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" s="21">
         <v>78.925897000000006</v>
@@ -3129,10 +3130,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C54" s="21">
         <v>711.76417000000004</v>
@@ -3161,10 +3162,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" s="21">
         <v>187.077316</v>
@@ -3193,10 +3194,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C56" s="21">
         <v>802.29954899999996</v>
@@ -3225,10 +3226,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C57" s="21">
         <v>47527.816744000003</v>
@@ -3257,10 +3258,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C58" s="21">
         <v>1317.912851</v>
@@ -3289,10 +3290,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C59" s="21">
         <v>1421.3217030000001</v>
@@ -3321,10 +3322,10 @@
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C60" s="23">
         <v>1411.698811</v>
@@ -3354,7 +3355,7 @@
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C61" s="28">
         <v>81264.454549000002</v>
@@ -3384,7 +3385,7 @@
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" s="50">
         <v>311964.06036800001</v>
@@ -3414,7 +3415,7 @@
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C63" s="50">
         <v>2849586.9919110001</v>
@@ -3444,7 +3445,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C64" s="55">
         <v>453731.51656399999</v>
@@ -3474,7 +3475,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C65" s="59">
         <v>389535.06015999999</v>
@@ -3504,7 +3505,7 @@
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C66" s="63">
         <v>3161551.0522790002</v>
@@ -3534,7 +3535,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C67" s="59">
         <v>69257.188230999993</v>
@@ -3564,7 +3565,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C68" s="59">
         <v>143385.012946</v>
@@ -3594,7 +3595,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C69" s="59">
         <v>13704.793637999999</v>
@@ -3624,7 +3625,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C70" s="59">
         <v>65428.551230999998</v>
@@ -3654,7 +3655,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C71" s="59">
         <v>81264.454549000002</v>
@@ -3684,7 +3685,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C72" s="59">
         <v>12801.328425</v>
@@ -3714,7 +3715,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C73" s="59">
         <v>107232.450345</v>
@@ -3744,7 +3745,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C74" s="59">
         <v>76261.530165999997</v>
@@ -3774,7 +3775,7 @@
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C75" s="66">
         <v>42448.665372000003</v>
@@ -3804,7 +3805,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C76" s="70">
         <v>183201.65669</v>
@@ -3834,7 +3835,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C77" s="59">
         <v>366778.73967600003</v>
@@ -3864,7 +3865,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C78" s="59">
         <v>376911.68662599998</v>
@@ -3894,7 +3895,7 @@
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C79" s="63">
         <v>1423464.356564</v>
@@ -3924,7 +3925,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C80" s="70">
         <v>124161.436401</v>
@@ -3954,7 +3955,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C81" s="59">
         <v>831725.46519200003</v>
@@ -3984,7 +3985,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C82" s="59">
         <v>187802.62396699999</v>
@@ -4014,7 +4015,7 @@
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C83" s="63">
         <v>2017861.526719</v>
@@ -4044,7 +4045,7 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C84" s="70">
         <v>28723.138472999999</v>
@@ -4074,7 +4075,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C85" s="59">
         <v>2800.7498340000002</v>
@@ -4104,7 +4105,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C86" s="59">
         <v>158235.33103900001</v>
@@ -4134,7 +4135,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C87" s="59">
         <v>99038.245932999998</v>
@@ -4164,7 +4165,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C88" s="59">
         <v>122492.27254599999</v>
@@ -4194,7 +4195,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C89" s="59">
         <v>797309.42712200002</v>
@@ -4224,7 +4225,7 @@
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C90" s="63">
         <v>1945315.697769</v>
@@ -4254,7 +4255,7 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C91" s="70">
         <v>86048.721013000002</v>
@@ -4284,7 +4285,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C92" s="59">
         <v>16085.921421999999</v>
@@ -4314,7 +4315,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C93" s="59">
         <v>539.15280399999995</v>
@@ -4344,7 +4345,7 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C94" s="59">
         <v>25119.039644</v>
@@ -4374,7 +4375,7 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C95" s="59">
         <v>21405.480314</v>
@@ -4404,7 +4405,7 @@
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C96" s="63">
         <v>122384.897084</v>
@@ -4434,7 +4435,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C97" s="70">
         <v>200735.49884399999</v>
@@ -4464,7 +4465,7 @@
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C98" s="63">
         <v>144527.41605999999</v>
@@ -4505,7 +4506,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C100" s="76"/>
       <c r="D100" s="76"/>
@@ -4518,7 +4519,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C101" s="76"/>
       <c r="D101" s="76"/>
@@ -4531,7 +4532,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C102" s="76"/>
       <c r="D102" s="76"/>
@@ -4544,7 +4545,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C103" s="76"/>
       <c r="D103" s="76"/>
@@ -4557,7 +4558,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C104" s="76"/>
       <c r="D104" s="76"/>
@@ -4570,7 +4571,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
@@ -4582,6 +4583,9 @@
       <c r="J105" s="76"/>
     </row>
     <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -4592,10 +4596,8 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="78" t="s">
-        <v>167</v>
-      </c>
+    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="77"/>
       <c r="C107" s="76"/>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
@@ -4606,7 +4608,9 @@
       <c r="J107" s="76"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="80" t="s">
+        <v>172</v>
+      </c>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76"/>
@@ -4617,9 +4621,7 @@
       <c r="J108" s="76"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="81" t="s">
-        <v>169</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
       <c r="E109" s="76"/>
@@ -4630,8 +4632,8 @@
       <c r="J109" s="76"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="81" t="s">
-        <v>170</v>
+      <c r="B110" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -4643,8 +4645,8 @@
       <c r="J110" s="76"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="81" t="s">
-        <v>171</v>
+      <c r="B111" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
@@ -4656,8 +4658,8 @@
       <c r="J111" s="76"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>168</v>
+      <c r="B112" s="80" t="s">
+        <v>173</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -4669,7 +4671,9 @@
       <c r="J112" s="76"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="79"/>
+      <c r="B113" s="80" t="s">
+        <v>171</v>
+      </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
       <c r="E113" s="76"/>
@@ -4679,17 +4683,38 @@
       <c r="I113" s="76"/>
       <c r="J113" s="76"/>
     </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="78"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="78"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="76"/>
+      <c r="J115" s="76"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D755F6CA-2AD4-4E5F-95D8-2851BBEEE34F}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{7380AA5C-9E85-4266-BF21-A0A0DF6C97A5}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{4E71066C-BA37-4F5C-9AA1-B1277D73E84F}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{3203E491-B435-42D9-AECF-ACD48115463A}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{04BCDA72-661D-424D-A1E1-7342FFA8FB0A}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{51978797-35DA-4D88-9D32-6B4568474456}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8F0B55CE-7F29-4D17-925D-EC5F78DF4959}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B99554BC-2AB7-4871-97A1-12F10912D4FF}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{3D99DDCE-5F91-4EA5-BA0D-A77061FCD039}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{E18DE712-54F7-48D2-A87F-CA987335E2F3}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{9BCC3B9C-503B-4E64-A023-F75DFBFFCCCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
